--- a/Notes/中航华星.xlsx
+++ b/Notes/中航华星.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>Day</t>
   </si>
@@ -45,6 +45,12 @@
     <t>2018.04.04</t>
   </si>
   <si>
+    <t>微信公众号折扣，微信接口的初步了解</t>
+  </si>
+  <si>
+    <t>支付路径加入沙盒路径，测试支付折扣：付款-退款-查询</t>
+  </si>
+  <si>
     <t>2018.04.05</t>
   </si>
   <si>
@@ -57,13 +63,48 @@
     <t>2018.04.08</t>
   </si>
   <si>
+    <t>html5规范不允许加id，但是浏览器厂商却实现了这个功能,
+label标签只有两个属性 
+for（ 规定 label 绑定到哪个表单元素。 ）
+form（规定 label 字段所属的一个或多个表单）</t>
+  </si>
+  <si>
+    <t>设置readonly = true，页面上无法修改内容，但是可以通过JavaScript修改,内容会被提交
+设置disabled = true,无法修改内容，也不会被提交</t>
+  </si>
+  <si>
     <t>2018.04.09</t>
   </si>
   <si>
+    <t>微信接口：使用测试账号的ID与密码获取access_token，使用access_token与用户ID获取用户
+信息；使用access_token获取ticket以获取二维码</t>
+  </si>
+  <si>
+    <t>微信接口-》企业付款到零钱-》随机字符串算法，签名算法，根据$data生成Xml数据，返回数据转为json</t>
+  </si>
+  <si>
     <t>2018.04.10</t>
   </si>
   <si>
+    <t>百度识字SDK，选择图片并预览，识别上传图片中的关键文字（行驶证），返回车架号（ajax提交数据）</t>
+  </si>
+  <si>
+    <t>修改推广二维码背景，使用js修改form表单的属性以跳转不同的地址和参数</t>
+  </si>
+  <si>
+    <t>服务器路径问题</t>
+  </si>
+  <si>
     <t>2018.04.11</t>
+  </si>
+  <si>
+    <t>代码提交到服务器，调整图片路径</t>
+  </si>
+  <si>
+    <t>微信JS-SDK</t>
+  </si>
+  <si>
+    <t>PC端正常识字，移动端图片格式识别失败</t>
   </si>
   <si>
     <t>2018.04.12</t>
@@ -105,16 +146,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,29 +189,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -174,6 +215,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +282,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,20 +298,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,18 +312,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,25 +396,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,30 +462,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,36 +474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,42 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,154 +608,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1071,17 +1108,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="77.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="80.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="51.825" customWidth="1"/>
+    <col min="3" max="3" width="46.15" customWidth="1"/>
+    <col min="4" max="4" width="14.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1092,121 +1130,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="27" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="27" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:3">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/中航华星.xlsx
+++ b/Notes/中航华星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="27645" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>Day</t>
   </si>
@@ -110,6 +110,15 @@
     <t>2018.04.12</t>
   </si>
   <si>
+    <t>接口配置信息，验证URL，被动回复消息</t>
+  </si>
+  <si>
+    <t>力鼎thinkphp网站修改</t>
+  </si>
+  <si>
+    <t>验证成功，回复失败</t>
+  </si>
+  <si>
     <t>2018.04.13</t>
   </si>
   <si>
@@ -119,10 +128,19 @@
     <t>2018.04.15</t>
   </si>
   <si>
+    <t>力鼎网站修改</t>
+  </si>
+  <si>
     <t>2018.04.16</t>
   </si>
   <si>
+    <t>微信接口</t>
+  </si>
+  <si>
     <t>2018.04.17</t>
+  </si>
+  <si>
+    <t>bootstrap框架重新学习</t>
   </si>
   <si>
     <t>2018.04.18</t>
@@ -146,9 +164,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,15 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -205,14 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -221,7 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,7 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,9 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +267,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -282,14 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +299,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +543,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +574,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,39 +621,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1129,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1119,7 +1137,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="51.825" customWidth="1"/>
     <col min="3" max="3" width="46.15" customWidth="1"/>
-    <col min="4" max="4" width="14.425" customWidth="1"/>
+    <col min="4" max="4" width="18.45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1214,7 +1232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="40.5" spans="1:4">
+    <row r="11" ht="27" spans="1:4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1228,59 +1246,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/中航华星.xlsx
+++ b/Notes/中航华星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="13650"/>
+    <workbookView windowWidth="27720" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>Day</t>
   </si>
@@ -146,16 +146,186 @@
     <t>2018.04.18</t>
   </si>
   <si>
+    <t>彩票系统开发源码测试</t>
+  </si>
+  <si>
+    <t>Vue框架基础</t>
+  </si>
+  <si>
     <t>2018.04.19</t>
   </si>
   <si>
+    <t>bootstrap规范，bootstrap中的JavaScript插件</t>
+  </si>
+  <si>
+    <t>优化导航页（加入php）</t>
+  </si>
+  <si>
     <t>2018.04.20</t>
   </si>
   <si>
+    <t>$(window).resize(function() {//检测窗口是否调整过大小
+   for (var i = 0; i&lt;maxpage; i++) {
+     var w=$('#di'+i).width();//获取宽度
+     $('#di'+i).css('height',w+"px");//高度赋值
+   }
+});</t>
+  </si>
+  <si>
+    <t>力鼎上线服务器</t>
+  </si>
+  <si>
+    <t>完成响应式导航页</t>
+  </si>
+  <si>
     <t>2018.04.21</t>
   </si>
   <si>
+    <t>微信智慧餐厅优质案例调整为A4大小</t>
+  </si>
+  <si>
+    <t>导航模态框添加导航内容并上传图片</t>
+  </si>
+  <si>
+    <t>富悦大酒店网站文章图片路径调整</t>
+  </si>
+  <si>
     <t>2018.04.22</t>
+  </si>
+  <si>
+    <t>2018.04.23</t>
+  </si>
+  <si>
+    <t>力鼎网站路径及页面查询修改</t>
+  </si>
+  <si>
+    <t>2018.04.24</t>
+  </si>
+  <si>
+    <t>实习报告大纲</t>
+  </si>
+  <si>
+    <t>雨刷刷部分样式调整，添加订单退款功能</t>
+  </si>
+  <si>
+    <t>雨刷刷微信退款</t>
+  </si>
+  <si>
+    <t>2018.04.25</t>
+  </si>
+  <si>
+    <t>雨刷刷订单导出</t>
+  </si>
+  <si>
+    <t>卓亚涂料</t>
+  </si>
+  <si>
+    <t>2018.04.26</t>
+  </si>
+  <si>
+    <t>2018.04.27</t>
+  </si>
+  <si>
+    <t>2018.04.28</t>
+  </si>
+  <si>
+    <t>2018.04.29</t>
+  </si>
+  <si>
+    <t>2018.04.30</t>
+  </si>
+  <si>
+    <t>2018.05.01</t>
+  </si>
+  <si>
+    <t>2018.05.02</t>
+  </si>
+  <si>
+    <t>2018.05.03</t>
+  </si>
+  <si>
+    <t>2018.05.04</t>
+  </si>
+  <si>
+    <t>2018.05.05</t>
+  </si>
+  <si>
+    <t>2018.05.06</t>
+  </si>
+  <si>
+    <t>2018.05.07</t>
+  </si>
+  <si>
+    <t>2018.05.08</t>
+  </si>
+  <si>
+    <t>2018.05.09</t>
+  </si>
+  <si>
+    <t>2018.05.10</t>
+  </si>
+  <si>
+    <t>2018.05.11</t>
+  </si>
+  <si>
+    <t>2018.05.12</t>
+  </si>
+  <si>
+    <t>2018.05.13</t>
+  </si>
+  <si>
+    <t>2018.05.14</t>
+  </si>
+  <si>
+    <t>2018.05.15</t>
+  </si>
+  <si>
+    <t>2018.05.16</t>
+  </si>
+  <si>
+    <t>2018.05.17</t>
+  </si>
+  <si>
+    <t>2018.05.18</t>
+  </si>
+  <si>
+    <t>2018.05.19</t>
+  </si>
+  <si>
+    <t>2018.05.20</t>
+  </si>
+  <si>
+    <t>2018.05.21</t>
+  </si>
+  <si>
+    <t>2018.05.22</t>
+  </si>
+  <si>
+    <t>2018.05.23</t>
+  </si>
+  <si>
+    <t>2018.05.24</t>
+  </si>
+  <si>
+    <t>2018.05.25</t>
+  </si>
+  <si>
+    <t>2018.05.26</t>
+  </si>
+  <si>
+    <t>2018.05.27</t>
+  </si>
+  <si>
+    <t>2018.05.28</t>
+  </si>
+  <si>
+    <t>2018.05.29</t>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+  </si>
+  <si>
+    <t>2018.05.31</t>
   </si>
 </sst>
 </file>
@@ -163,10 +333,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,7 +348,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +377,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -207,6 +393,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -215,7 +409,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,98 +490,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,187 +500,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +714,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +749,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,49 +786,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,18 +1296,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="51.825" customWidth="1"/>
-    <col min="3" max="3" width="46.15" customWidth="1"/>
-    <col min="4" max="4" width="18.45" customWidth="1"/>
+    <col min="3" max="3" width="50.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="27.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1225,7 +1395,7 @@
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1294,29 +1464,275 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" ht="94.5" spans="1:4">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:4">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
